--- a/需求分析/接口文档/自用/权限列表08-31-2.xlsx
+++ b/需求分析/接口文档/自用/权限列表08-31-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="20715" windowHeight="7275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能权限" sheetId="5" r:id="rId1"/>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>□</t>
     </r>
     <r>
@@ -1360,6 +1366,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>部门</t>
     </r>
     <r>
@@ -1383,6 +1395,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>添加部门</t>
     </r>
     <r>
@@ -1539,10 +1557,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1620,9 +1638,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1637,44 +1728,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1690,42 +1744,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1734,7 +1752,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1761,7 +1779,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1773,43 +1905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1821,7 +1917,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1833,13 +1941,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1852,90 +1954,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1973,36 +1991,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2014,26 +2002,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2061,55 +2029,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2121,95 +2139,95 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="19" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2219,9 +2237,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="28" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2251,9 +2266,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="43" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2649,21 +2661,21 @@
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="20.125" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="15" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="14" customWidth="1"/>
     <col min="8" max="8" width="71.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -2697,7 +2709,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -2741,7 +2753,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2762,7 +2774,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2"/>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="3"/>
@@ -2771,11 +2783,11 @@
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="2"/>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="2"/>
@@ -2788,13 +2800,13 @@
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2803,9 +2815,9 @@
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="9"/>
-      <c r="F13" s="15" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="8"/>
+      <c r="F13" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2814,10 +2826,10 @@
       <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2843,7 +2855,7 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2855,7 +2867,7 @@
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="2"/>
@@ -2871,10 +2883,10 @@
     </row>
     <row r="20" customHeight="1" spans="1:5">
       <c r="A20" s="2"/>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="3"/>
@@ -2891,25 +2903,25 @@
     </row>
     <row r="22" customHeight="1" spans="1:6">
       <c r="A22" s="2"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:5">
       <c r="A23" s="2"/>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" customHeight="1" spans="1:5">
       <c r="A24" s="2"/>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="3"/>
@@ -2926,30 +2938,30 @@
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" customHeight="1" spans="1:6">
       <c r="A27" s="2"/>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:5">
       <c r="A28" s="2"/>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" customHeight="1" spans="1:5">
@@ -2968,7 +2980,7 @@
       </c>
       <c r="C30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="14" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2999,7 +3011,7 @@
       </c>
       <c r="C33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3018,26 +3030,26 @@
     </row>
     <row r="35" customHeight="1" spans="1:5">
       <c r="A35" s="2"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" customHeight="1" spans="1:5">
       <c r="A36" s="2"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" customHeight="1" spans="1:5">
       <c r="A37" s="2"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" customHeight="1" spans="1:5">
-      <c r="A38" s="23"/>
+      <c r="A38" s="13"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" customHeight="1" spans="1:5">
@@ -3051,18 +3063,18 @@
     </row>
     <row r="40" customHeight="1" spans="1:6">
       <c r="A40" s="2"/>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="8"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:5">
       <c r="A41" s="2"/>
-      <c r="B41" s="7"/>
+      <c r="B41" s="6"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
@@ -3079,9 +3091,9 @@
     </row>
     <row r="43" customHeight="1" spans="1:9">
       <c r="A43" s="2"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="24"/>
-      <c r="F43" s="15" t="s">
+      <c r="B43" s="6"/>
+      <c r="C43" s="22"/>
+      <c r="F43" s="14" t="s">
         <v>65</v>
       </c>
       <c r="G43" s="3"/>
@@ -3090,10 +3102,10 @@
     </row>
     <row r="44" customHeight="1" spans="1:9">
       <c r="A44" s="2"/>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="7"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="G44" s="3"/>
@@ -3102,9 +3114,9 @@
     </row>
     <row r="45" customHeight="1" spans="1:9">
       <c r="A45" s="2"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="9"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="8"/>
       <c r="E45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -3112,11 +3124,11 @@
     </row>
     <row r="46" customHeight="1" spans="1:9">
       <c r="A46" s="2"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="24"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="22"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="14" t="s">
         <v>67</v>
       </c>
       <c r="G46" s="3"/>
@@ -3125,9 +3137,9 @@
     </row>
     <row r="47" customHeight="1" spans="1:9">
       <c r="A47" s="2"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
       <c r="E47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -3175,7 +3187,7 @@
         <v>71</v>
       </c>
       <c r="E51" s="3"/>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="14" t="s">
         <v>72</v>
       </c>
       <c r="H51" s="3"/>
@@ -3203,67 +3215,67 @@
       <c r="A54" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
     </row>
     <row r="55" customHeight="1" spans="1:6">
       <c r="A55" s="2"/>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="15" t="s">
+      <c r="C55" s="23"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:5">
       <c r="A56" s="2"/>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
     </row>
     <row r="57" customHeight="1" spans="1:5">
       <c r="A57" s="2"/>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
     </row>
     <row r="58" customHeight="1" spans="1:6">
       <c r="A58" s="2"/>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="15" t="s">
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:5">
       <c r="A59" s="2"/>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="E59" s="25" t="s">
+      <c r="E59" s="23" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3274,7 +3286,7 @@
       <c r="E60" s="3"/>
     </row>
     <row r="61" customHeight="1" spans="1:5">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -3285,24 +3297,24 @@
       <c r="E61" s="3"/>
     </row>
     <row r="62" customHeight="1" spans="1:6">
-      <c r="A62" s="12"/>
+      <c r="A62" s="11"/>
       <c r="B62" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="15" t="s">
+      <c r="F62" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:5">
-      <c r="A63" s="12"/>
-      <c r="B63" s="7"/>
-      <c r="D63" s="27"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="6"/>
+      <c r="D63" s="25"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" customHeight="1" spans="1:5">
-      <c r="A64" s="12"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="3" t="s">
         <v>92</v>
       </c>
@@ -3311,19 +3323,19 @@
       <c r="E64" s="3"/>
     </row>
     <row r="65" customHeight="1" spans="1:6">
-      <c r="A65" s="12"/>
+      <c r="A65" s="11"/>
       <c r="B65" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C65" s="7"/>
+      <c r="C65" s="6"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="15" t="s">
+      <c r="F65" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:5">
-      <c r="A66" s="12"/>
+      <c r="A66" s="11"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3335,53 +3347,53 @@
       <c r="E67" s="3"/>
     </row>
     <row r="68" customHeight="1" spans="1:5">
-      <c r="A68" s="28"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
     </row>
     <row r="69" customHeight="1" spans="1:6">
-      <c r="A69" s="28"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="15" t="s">
+      <c r="A69" s="26"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:5">
-      <c r="A70" s="28"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
     </row>
     <row r="71" customHeight="1" spans="1:6">
-      <c r="A71" s="28"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="15" t="s">
+      <c r="A71" s="26"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:5">
-      <c r="A72" s="28"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
+      <c r="A72" s="26"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
     </row>
     <row r="73" customHeight="1" spans="1:6">
-      <c r="A73" s="28"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="15" t="s">
+      <c r="A73" s="26"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="14" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3392,7 +3404,7 @@
       <c r="E74" s="3"/>
     </row>
     <row r="75" customHeight="1" spans="1:5">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="12" t="s">
         <v>98</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -3403,7 +3415,7 @@
       <c r="E75" s="3"/>
     </row>
     <row r="76" customHeight="1" spans="1:5">
-      <c r="A76" s="29"/>
+      <c r="A76" s="27"/>
       <c r="B76" s="3" t="s">
         <v>100</v>
       </c>
@@ -3412,7 +3424,7 @@
       <c r="E76" s="3"/>
     </row>
     <row r="77" customHeight="1" spans="1:5">
-      <c r="A77" s="29"/>
+      <c r="A77" s="27"/>
       <c r="B77" s="3" t="s">
         <v>101</v>
       </c>
@@ -3421,7 +3433,7 @@
       <c r="E77" s="3"/>
     </row>
     <row r="78" customHeight="1" spans="1:5">
-      <c r="A78" s="29"/>
+      <c r="A78" s="27"/>
       <c r="B78" s="3" t="s">
         <v>102</v>
       </c>
@@ -3430,13 +3442,13 @@
       <c r="E78" s="3"/>
     </row>
     <row r="79" customHeight="1" spans="1:2">
-      <c r="A79" s="29"/>
+      <c r="A79" s="27"/>
       <c r="B79" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:2">
-      <c r="A80" s="29"/>
+      <c r="A80" s="27"/>
       <c r="B80" s="3" t="s">
         <v>104</v>
       </c>
@@ -3467,7 +3479,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3603,7 +3615,7 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3617,7 +3629,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="5"/>
+      <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>121</v>
       </c>
@@ -3738,8 +3750,8 @@
       </c>
     </row>
     <row r="31" spans="7:8">
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
@@ -3761,7 +3773,7 @@
       <c r="C33" t="s">
         <v>134</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2"/>
@@ -3828,9 +3840,9 @@
       <c r="C40" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2"/>
@@ -3840,8 +3852,8 @@
       <c r="C41" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="10"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="2"/>
@@ -3851,9 +3863,9 @@
       <c r="C42" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2"/>
@@ -3877,8 +3889,8 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="8"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2"/>
@@ -3936,7 +3948,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -3947,10 +3959,10 @@
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="12"/>
+      <c r="A56" s="11"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="12"/>
+      <c r="A57" s="11"/>
       <c r="B57" s="3" t="s">
         <v>92</v>
       </c>
@@ -3959,20 +3971,20 @@
       </c>
     </row>
     <row r="58" spans="4:5">
-      <c r="D58" s="12"/>
+      <c r="D58" s="11"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" ht="40.5" spans="1:4">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D59" s="12"/>
+      <c r="D59" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
